--- a/fsdviz/tests/xls_files/simple.xlsx
+++ b/fsdviz/tests/xls_files/simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COTTRILLAD\1work\LakeTrout\Stocking\GLFSD_Datavis\fsdviz\fsdviz\tests\xls_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B1C99C-74D5-4F67-BA6B-484918DCB1A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53830B0F-F518-4F0B-9B3D-12F34E81ADC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{78F30F1D-76E6-4F40-B6A5-AFF3D0365DF6}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{78F30F1D-76E6-4F40-B6A5-AFF3D0365DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>A</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>zeta</t>
+  </si>
+  <si>
+    <t>The location of the data in this spreadsheet matches the upload template:</t>
   </si>
 </sst>
 </file>
@@ -408,44 +411,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA840B6C-7BD7-447A-A537-35B7F115F3C4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>

--- a/fsdviz/tests/xls_files/simple.xlsx
+++ b/fsdviz/tests/xls_files/simple.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COTTRILLAD\1work\LakeTrout\Stocking\GLFSD_Datavis\fsdviz\fsdviz\tests\xls_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1work\fsdviz\fsdviz\tests\xls_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53830B0F-F518-4F0B-9B3D-12F34E81ADC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F530A299-0BF1-4D82-A6D3-269F12054AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{78F30F1D-76E6-4F40-B6A5-AFF3D0365DF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{78F30F1D-76E6-4F40-B6A5-AFF3D0365DF6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA_TEMPLATE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -413,7 +413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA840B6C-7BD7-447A-A537-35B7F115F3C4}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
